--- a/TestScript.xlsx
+++ b/TestScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F9BB56-402B-4FAE-9D20-AE3AE34E426D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C93F78D-6620-4D8B-A02A-3D1191E34DA9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestScript.xlsx
+++ b/TestScript.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C93F78D-6620-4D8B-A02A-3D1191E34DA9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD0D551-4D9A-4BB6-8DD0-9715AF538574}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC_01" sheetId="1" r:id="rId1"/>
-    <sheet name="TC_02" sheetId="2" r:id="rId2"/>
+    <sheet name="TC_01" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_02" sheetId="1" r:id="rId2"/>
+    <sheet name="TC_03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>openBrowser</t>
   </si>
@@ -35,9 +36,6 @@
     <t>Action</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -69,6 +67,18 @@
   </si>
   <si>
     <t>OR_01</t>
+  </si>
+  <si>
+    <t>OR_02</t>
+  </si>
+  <si>
+    <t>TC_OR02</t>
+  </si>
+  <si>
+    <t>Urlx</t>
+  </si>
+  <si>
+    <t>OR_03</t>
   </si>
 </sst>
 </file>
@@ -431,11 +441,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF5680-2B42-476D-B48E-A9251F2E1D32}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,24 +519,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -471,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,19 +551,13 @@
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -505,21 +566,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -531,16 +589,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF5680-2B42-476D-B48E-A9251F2E1D32}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D954CCD2-E2C2-4552-A5CC-9378E87FB3D9}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>